--- a/ProjectExecution/BA/SpecsWireframes/004TeacherAppFunctionalSpecs.xlsx
+++ b/ProjectExecution/BA/SpecsWireframes/004TeacherAppFunctionalSpecs.xlsx
@@ -179,22 +179,26 @@
       <sz val="48"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -888,8 +892,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -940,7 +944,7 @@
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
-        <v>1001001</v>
+        <v>2001001</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>21</v>

--- a/ProjectExecution/BA/SpecsWireframes/004TeacherAppFunctionalSpecs.xlsx
+++ b/ProjectExecution/BA/SpecsWireframes/004TeacherAppFunctionalSpecs.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Specifications" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="95">
   <si>
     <t>Anodiam</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Behavior</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
     <t>Functional Specifications</t>
   </si>
   <si>
@@ -80,95 +74,248 @@
     <t>DN</t>
   </si>
   <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>Home</t>
+    <t>SIGN UP hyperlink</t>
+  </si>
+  <si>
+    <t>On Click</t>
+  </si>
+  <si>
+    <t>Reference Pages</t>
+  </si>
+  <si>
+    <t>..\..\..\AgilePM\ProductBacklog.xlsx</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>Signup / Login page</t>
+  </si>
+  <si>
+    <t>SIGN UP form will be opened</t>
+  </si>
+  <si>
+    <t>003TeacherAppWireframes.pptx</t>
+  </si>
+  <si>
+    <t>Show/hide password</t>
+  </si>
+  <si>
+    <t>On click</t>
+  </si>
+  <si>
+    <t>Toggle between show/hide password</t>
+  </si>
+  <si>
+    <t>Login Button</t>
+  </si>
+  <si>
+    <t>If user id does not exist, following error will be raised:
+User ID for this teacher does not exist.</t>
+  </si>
+  <si>
+    <t>If user id exists but password does not match for 5 times in a row, user id should be locked for 1 hour.</t>
+  </si>
+  <si>
+    <t>If user id exists but password does not match, following error will be raised:
+Password does not match. Try again.</t>
+  </si>
+  <si>
+    <t>If user id exists but password does not match for 2, 3, or 4 times in a row, following error will be raised respectively:
+Password does not match. You have 3, 2, 1 more attempt(s) left. After that, user id will be locked for 1 hour.</t>
+  </si>
+  <si>
+    <t>Teacher's Profile page will be openned.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Personal details</t>
+  </si>
+  <si>
+    <t>User id</t>
+  </si>
+  <si>
+    <t>On lost focus</t>
+  </si>
+  <si>
+    <t>If the user id is less than 6 characters show message immidiately below user id field saying "Too short. User id should be minium 6 characters long"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the user id already exis then a message will appear immidiately below the user id field saying "User id already exists. Try something else" </t>
+  </si>
+  <si>
+    <t>Email id</t>
+  </si>
+  <si>
+    <t>If email id format is not valid then a message will appear immidiately below the email id field saying "Invalid email format"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If phone number contains any other character than numbers or space then a message will appear immidiately below the phone number saying "Invalid phone number" </t>
+  </si>
+  <si>
+    <t>Phone number with international code</t>
+  </si>
+  <si>
+    <t>On typing</t>
+  </si>
+  <si>
+    <t>If phone number does not start with the "+" sign then a message will appear immidiately below the phone number saying "Phone number should start with + sign and international code"</t>
+  </si>
+  <si>
+    <t>If First name/Last name field should not be blank</t>
+  </si>
+  <si>
+    <t>First name/Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit Button </t>
+  </si>
+  <si>
+    <t>Uploading CV is mandetory and should be in word format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover letter if uploaded should be in word format </t>
+  </si>
+  <si>
+    <t>Photo if uploaded should be in .jpeg/ .png/ .bmp format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On upload </t>
+  </si>
+  <si>
+    <t>Professional details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File upload </t>
+  </si>
+  <si>
+    <t>Following fields should be mandatory:
+First name, Last name, Email id, User id, Phone no</t>
+  </si>
+  <si>
+    <t>Ligal terms and conditions should be accepted/checked</t>
+  </si>
+  <si>
+    <t>Business terms and conditions should be accepted/checked</t>
+  </si>
+  <si>
+    <t>If all validation passed a dialogue box will appear with the message, "Signup successful. If you qualify then an Anodiam admin will contact you within one week."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If signup successful then an Email will be sent to the teacher from Anodiam Admin </t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login details </t>
+  </si>
+  <si>
+    <t>If the entered User Id is not matching then a message will appear saying, "Uder Id doesn’t exist"</t>
+  </si>
+  <si>
+    <t>Login Screen</t>
+  </si>
+  <si>
+    <t>User Signup</t>
+  </si>
+  <si>
+    <t>User id field</t>
+  </si>
+  <si>
+    <t>If the User Id field is blank then a message will appear saying, "Uder Id can not be blank"</t>
+  </si>
+  <si>
+    <t>If the password is not matching with the given user id then a message will appear saying, "Password doesn’t match"</t>
+  </si>
+  <si>
+    <t>Password creation screen</t>
+  </si>
+  <si>
+    <t>Password field</t>
+  </si>
+  <si>
+    <t>If password is less than five characters then password strength control color (red) will show weak and will not accept this password</t>
+  </si>
+  <si>
+    <t>If the password contains five or more than five characters but no special characters or numbers then the password strength control color (yellow) will show medium but accept</t>
+  </si>
+  <si>
+    <t>If the password contains five or more than five characters and also has special characters or numbers then the password strength control color (green) will show Strong and will accept</t>
+  </si>
+  <si>
+    <t>Confirm Password field</t>
+  </si>
+  <si>
+    <t>Create Password button</t>
+  </si>
+  <si>
+    <t>If the password is Medium or Strong, password will be saved in the database in encoded format</t>
+  </si>
+  <si>
+    <t>Onclick</t>
+  </si>
+  <si>
+    <t>Password field Show/Hide password button</t>
+  </si>
+  <si>
+    <t>Confirm Password field Show/Hide password button</t>
+  </si>
+  <si>
+    <t>Password field's display will toggle between hidden (****) and readable formats</t>
+  </si>
+  <si>
+    <t>If the password is Medium or Strong, then the teacher user will be forwarded to the Teacher Home page</t>
+  </si>
+  <si>
+    <t>Given the User id and password matches then the user will be able to go to the next page i.e my Teacher Home page</t>
+  </si>
+  <si>
+    <t>Behavior / Effect</t>
+  </si>
+  <si>
+    <t>My Teacher Home</t>
   </si>
   <si>
     <t>Header</t>
   </si>
   <si>
-    <t>SIGN UP hyperlink</t>
-  </si>
-  <si>
-    <t>On mouse hover</t>
-  </si>
-  <si>
-    <t>On Click</t>
-  </si>
-  <si>
-    <t>SIGN UP hyperlink will change color to #fff</t>
-  </si>
-  <si>
-    <t>LOGIN hyperlink will change color to #fff</t>
-  </si>
-  <si>
-    <t>LOGIN hyperlink</t>
-  </si>
-  <si>
-    <t>SIGN UP form/tab of User Access page will open</t>
-  </si>
-  <si>
-    <t>LOGIN page/form will be opened</t>
-  </si>
-  <si>
-    <t>SEARCH field</t>
-  </si>
-  <si>
-    <t>"Type here" will be written by default with the color #bfbfff</t>
-  </si>
-  <si>
-    <t>On mouse click</t>
-  </si>
-  <si>
-    <t>Footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cursor will appear blinking with the color #0f0f7f on the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There will be a static text written </t>
-  </si>
-  <si>
-    <t>Reference Pages</t>
-  </si>
-  <si>
-    <t>..\..\..\AgilePM\ProductBacklog.xlsx</t>
-  </si>
-  <si>
-    <t>..\SpecsWireframes\new001Wireframes.pptx</t>
-  </si>
-  <si>
-    <t>Signup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign up </t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign Up </t>
-  </si>
-  <si>
-    <t>Sign up hyperlink will change color to #fff</t>
-  </si>
-  <si>
-    <t>Sign up page will be opened with a form</t>
-  </si>
-  <si>
-    <t>Carousel</t>
-  </si>
-  <si>
-    <t>Will change background photo and caption every 5 seconds</t>
+    <t>Welcome Message</t>
+  </si>
+  <si>
+    <t>This message will be read only and display the first and last name of the teacher:
+Welcome Firstname Lastname</t>
+  </si>
+  <si>
+    <t>Menu Bar</t>
+  </si>
+  <si>
+    <t>Teacher Details drop down</t>
+  </si>
+  <si>
+    <t>It will display 3 more links below:
+1. Personal Details
+2. Professional Details
+3. Financial Details</t>
+  </si>
+  <si>
+    <t>Personal Details</t>
+  </si>
+  <si>
+    <t>Following fields from should be displayed about the teacher:
+First name, Middle Lame, Last name, Email id, Phone no, Country, Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -245,6 +392,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -467,10 +620,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,6 +698,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,8 +714,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,31 +957,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -842,10 +1005,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10">
         <v>44046</v>
@@ -890,10 +1053,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -901,13 +1067,13 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -933,382 +1099,1233 @@
         <v>14</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>38</v>
+        <v>85</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
-        <v>2001001</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="15"/>
+        <v>2001</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>1001002</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>1002001</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>1002002</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>1003001</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>1003002</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>1004001</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>21</v>
+      <c r="I7" s="27"/>
+      <c r="J7" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="23" t="s">
-        <v>37</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>1001002</v>
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>2009</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>1001003</v>
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>2010</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>1002001</v>
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>2011</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
-        <v>42</v>
+      <c r="D12" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>48</v>
+      <c r="G12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+    <row r="13" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+    <row r="14" spans="1:10" s="26" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="D14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="D15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="D16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="D17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="19"/>
       <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="26" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>2026</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>2027</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>2028</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>2029</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>2030</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>2031</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>2032</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>2033</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>2034</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>2035</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>2036</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>2037</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>2038</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>2039</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
+        <v>2040</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <v>2041</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>2042</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>2043</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
+        <v>2044</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>2045</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>2046</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
+        <v>2047</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>2048</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>2049</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>2050</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>2051</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>2052</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+    </row>
+    <row r="54" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>2053</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>2054</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>2055</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>2056</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>2057</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J4" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>

--- a/ProjectExecution/BA/SpecsWireframes/004TeacherAppFunctionalSpecs.xlsx
+++ b/ProjectExecution/BA/SpecsWireframes/004TeacherAppFunctionalSpecs.xlsx
@@ -307,7 +307,7 @@
     <t>Personal Details</t>
   </si>
   <si>
-    <t>Following fields from should be displayed about the teacher:
+    <t>Following fields form should be displayed about the teacher:
 First name, Middle Lame, Last name, Email id, Phone no, Country, Address</t>
   </si>
 </sst>
@@ -703,6 +703,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,9 +717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -957,31 +957,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1056,10 +1056,10 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1660,7 +1660,7 @@
         <v>73</v>
       </c>
       <c r="I23" s="19"/>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
         <v>74</v>
       </c>
       <c r="I24" s="19"/>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="28" t="s">
         <v>37</v>
       </c>
     </row>

--- a/ProjectExecution/BA/SpecsWireframes/004TeacherAppFunctionalSpecs.xlsx
+++ b/ProjectExecution/BA/SpecsWireframes/004TeacherAppFunctionalSpecs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="102">
   <si>
     <t>Anodiam</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>Password field's display will toggle between hidden (****) and readable formats</t>
-  </si>
-  <si>
-    <t>If the password is Medium or Strong, then the teacher user will be forwarded to the Teacher Home page</t>
   </si>
   <si>
     <t>Given the User id and password matches then the user will be able to go to the next page i.e my Teacher Home page</t>
@@ -309,6 +306,30 @@
   <si>
     <t>Following fields form should be displayed about the teacher:
 First name, Middle Lame, Last name, Email id, Phone no, Country, Address</t>
+  </si>
+  <si>
+    <t>Forget password hyperlink</t>
+  </si>
+  <si>
+    <t>After clicking on the submit button after providing the Email Id which is already there in Anodiam database a message will pop up saying "Password setting link has been sent to your Email Id. Please check."</t>
+  </si>
+  <si>
+    <t>New Password creation screen</t>
+  </si>
+  <si>
+    <t>New Password field</t>
+  </si>
+  <si>
+    <t>If the password matches with the Create password field or database?, then the teacher user will be forwarded to the My teacher home page or Login page?</t>
+  </si>
+  <si>
+    <t>If the password does not match with the Create password field or database?, then a message will popup saying "Password doesn’t match"</t>
+  </si>
+  <si>
+    <t>If the password matches with the Create password field or database?, then the new password will be saved in the Anodiam database and the teacher user will be forwarded to the My teacher home page or Login page?</t>
+  </si>
+  <si>
+    <t>If the teacher user wants to change the password then the Teacher user will be able to click on the "Forgot Pasword" link and a dialogue box with "Please provide your valid Email Id" will appear.</t>
   </si>
 </sst>
 </file>
@@ -399,7 +420,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +430,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4F4FCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -706,6 +739,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,6 +751,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -957,31 +997,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1053,13 +1093,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1139,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>21</v>
@@ -1786,7 +1826,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>2028</v>
       </c>
@@ -1804,41 +1844,39 @@
       <c r="G29" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="23" t="s">
-        <v>83</v>
+      <c r="H29" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>64</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E30" s="18"/>
       <c r="F30" s="23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>63</v>
@@ -1851,20 +1889,20 @@
         <v>64</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>63</v>
@@ -1883,14 +1921,14 @@
         <v>20</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>63</v>
@@ -1909,216 +1947,312 @@
         <v>20</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="23" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="H34" s="23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="23" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="23" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>93</v>
+        <v>64</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
-        <v>2036</v>
-      </c>
-      <c r="B37" s="18"/>
+        <v>2035</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="18"/>
+      <c r="F37" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <v>2037</v>
-      </c>
-      <c r="B38" s="18"/>
+        <v>2036</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="18"/>
+      <c r="F38" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
-        <v>2038</v>
-      </c>
-      <c r="B39" s="18"/>
+        <v>2037</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="D39" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="18"/>
+      <c r="F39" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <v>2039</v>
-      </c>
-      <c r="B40" s="18"/>
+        <v>2038</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="D40" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="18"/>
+      <c r="F40" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="29" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
-        <v>2040</v>
-      </c>
-      <c r="B41" s="18"/>
+        <v>2039</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="D41" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="18"/>
+      <c r="F41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <v>2041</v>
-      </c>
-      <c r="B42" s="18"/>
+        <v>2040</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="D42" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="18"/>
+      <c r="F42" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>100</v>
+      </c>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
-        <v>2042</v>
-      </c>
-      <c r="B43" s="18"/>
+        <v>2041</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="D43" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="G43" s="23"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
-        <v>2043</v>
-      </c>
-      <c r="B44" s="18"/>
+        <v>2042</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="18"/>
+      <c r="D44" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>91</v>
+      </c>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
-        <v>2044</v>
-      </c>
-      <c r="B45" s="18"/>
+        <v>2043</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="18"/>
+      <c r="D45" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2132,7 +2266,7 @@
     </row>
     <row r="47" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2146,7 +2280,7 @@
     </row>
     <row r="48" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -2160,7 +2294,7 @@
     </row>
     <row r="49" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2174,7 +2308,7 @@
     </row>
     <row r="50" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2188,7 +2322,7 @@
     </row>
     <row r="51" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2202,7 +2336,7 @@
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -2216,7 +2350,7 @@
     </row>
     <row r="53" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -2230,7 +2364,7 @@
     </row>
     <row r="54" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -2244,7 +2378,7 @@
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -2258,7 +2392,7 @@
     </row>
     <row r="56" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -2272,7 +2406,7 @@
     </row>
     <row r="57" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2286,7 +2420,7 @@
     </row>
     <row r="58" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -2298,29 +2432,155 @@
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+    <row r="59" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>2057</v>
+      </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="G59" s="23"/>
       <c r="H59" s="18"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+    <row r="60" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
+        <v>2058</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="19"/>
-      <c r="J60" s="22"/>
+      <c r="J60" s="19"/>
+    </row>
+    <row r="61" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>2059</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+    </row>
+    <row r="62" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>2060</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+    </row>
+    <row r="63" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>2061</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+    </row>
+    <row r="64" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>2062</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+    </row>
+    <row r="65" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>2063</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+    </row>
+    <row r="66" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <v>2056</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+    </row>
+    <row r="67" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="13">
+        <v>2057</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+    </row>
+    <row r="69" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
